--- a/2013-2014.xlsx
+++ b/2013-2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Legion\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Legion\Downloads\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Fall 2013" sheetId="2" r:id="rId1"/>
-    <sheet name="Winter 14" sheetId="3" r:id="rId2"/>
-    <sheet name="Spring 14" sheetId="4" r:id="rId3"/>
+    <sheet name="Winter 2014" sheetId="3" r:id="rId2"/>
+    <sheet name="Spring 2014" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30875,7 +30875,7 @@
   <dimension ref="A1:O283"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
